--- a/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1C56B1-6708-4110-8E26-F9070198F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C746E4-A758-444B-B026-2B4A0C8E3F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2070" windowWidth="23565" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="540" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
+    <sheet name="02_Stage1_Set" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="157">
   <si>
     <t>desc</t>
   </si>
@@ -1225,9 +1226,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1265,7 +1266,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1371,7 +1372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1513,7 +1514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1523,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3756,4 +3757,607 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5A12D-B9F6-41BC-8E5B-D7E79CC788E5}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="11" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <f>ROW()-2+1000</f>
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100010</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A12" si="0">ROW()-2+1000</f>
+        <v>1001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100010</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100020</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>1002</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100020</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100030</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100030</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100040</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100040</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100110</v>
+      </c>
+      <c r="D7" s="2">
+        <v>515</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100110</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100120</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100120</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100130</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100130</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100140</v>
+      </c>
+      <c r="D10" s="2">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100140</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100500</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C746E4-A758-444B-B026-2B4A0C8E3F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D23EB9-F468-48BB-844E-D9B94F573C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="540" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1230" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="164">
   <si>
     <t>desc</t>
   </si>
@@ -1106,6 +1106,55 @@
     <rPh sb="10" eb="12">
       <t>サイキョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらクッキーを作ろう！！</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテストに出場しよう！</t>
+    <rPh sb="6" eb="8">
+      <t>シュツジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の魔法を覚えよう！</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒカリにお菓子を覚えてもらう！</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_sakura</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cocoa_neko_cookie</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1524,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3763,8 +3812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5A12D-B9F6-41BC-8E5B-D7E79CC788E5}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3838,7 +3887,7 @@
         <v>100010</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>9999</v>
@@ -3847,19 +3896,19 @@
         <v>9999</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>128</v>
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -3871,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3886,7 +3935,7 @@
         <v>100020</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>9999</v>
@@ -3895,7 +3944,7 @@
         <v>9999</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>54</v>
@@ -3904,10 +3953,10 @@
         <v>54</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -3919,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3943,7 +3992,7 @@
         <v>9999</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>54</v>
@@ -3955,7 +4004,7 @@
         <v>128</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -3967,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3982,7 +4031,7 @@
         <v>100040</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>515</v>
       </c>
       <c r="E5" s="2">
         <v>9999</v>
@@ -3991,7 +4040,7 @@
         <v>9999</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
@@ -3999,11 +4048,11 @@
       <c r="I5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>137</v>
+      <c r="J5" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -4078,7 +4127,7 @@
         <v>100110</v>
       </c>
       <c r="D7" s="2">
-        <v>515</v>
+        <v>10000</v>
       </c>
       <c r="E7" s="2">
         <v>9999</v>
@@ -4087,7 +4136,7 @@
         <v>9999</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>154</v>
@@ -4095,8 +4144,8 @@
       <c r="I7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>140</v>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>121</v>
@@ -4135,7 +4184,7 @@
         <v>9999</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>54</v>
@@ -4183,7 +4232,7 @@
         <v>9999</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>54</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D23EB9-F468-48BB-844E-D9B94F573C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B339E797-8016-4A9D-A0E1-C3D52072120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1230" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
   <si>
     <t>desc</t>
   </si>
@@ -1155,6 +1155,20 @@
   </si>
   <si>
     <t>cocoa_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートLVを5以上にしよう！</t>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空き～～</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1573,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3812,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5A12D-B9F6-41BC-8E5B-D7E79CC788E5}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4031,7 +4045,7 @@
         <v>100040</v>
       </c>
       <c r="D5" s="2">
-        <v>515</v>
+        <v>9999</v>
       </c>
       <c r="E5" s="2">
         <v>9999</v>
@@ -4040,7 +4054,7 @@
         <v>9999</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
@@ -4079,7 +4093,7 @@
         <v>100100</v>
       </c>
       <c r="D6" s="2">
-        <v>10000</v>
+        <v>9999</v>
       </c>
       <c r="E6" s="2">
         <v>9999</v>
@@ -4088,7 +4102,7 @@
         <v>9999</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>54</v>
@@ -4136,7 +4150,7 @@
         <v>9999</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>154</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B339E797-8016-4A9D-A0E1-C3D52072120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF0416-C4C1-49F2-82B9-B3E8570CAFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,16 +1158,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートLVを5以上にしよう！</t>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>空き～～</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エデンの手がかりを探そう！</t>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3827,7 +3830,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4054,7 +4057,7 @@
         <v>9999</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
@@ -4150,7 +4153,7 @@
         <v>9999</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>154</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF0416-C4C1-49F2-82B9-B3E8570CAFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823FBD4-6CE0-453B-83EB-580209BD6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="169">
   <si>
     <t>desc</t>
   </si>
@@ -1154,10 +1154,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cocoa_neko_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>空き～～</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
@@ -1170,6 +1166,31 @@
       <t>テ</t>
     </rPh>
     <rPh sb="9" eb="10">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かわいいクッキーが食べたい！</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かわいいクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>heart_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エデンの手がかり探し～コンテストまで</t>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>サガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1590,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3830,7 +3851,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4000,16 +4021,16 @@
         <v>100030</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>509</v>
       </c>
       <c r="E4" s="2">
-        <v>9999</v>
+        <v>511</v>
       </c>
       <c r="F4" s="2">
-        <v>9999</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>54</v>
@@ -4018,7 +4039,7 @@
         <v>54</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>11</v>
@@ -4029,11 +4050,14 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="O4" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4057,7 +4081,7 @@
         <v>9999</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
@@ -4069,7 +4093,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -4113,8 +4137,8 @@
       <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>153</v>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>120</v>
@@ -4153,7 +4177,7 @@
         <v>9999</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>154</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823FBD4-6CE0-453B-83EB-580209BD6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D525E-4582-4605-A154-0539734B7502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="1185" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1182,10 +1182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>heart_neko_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エデンの手がかり探し～コンテストまで</t>
     <rPh sb="4" eb="5">
       <t>テ</t>
@@ -1193,6 +1189,10 @@
     <rPh sb="8" eb="9">
       <t>サガ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_heart</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1611,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3850,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5A12D-B9F6-41BC-8E5B-D7E79CC788E5}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4093,7 +4093,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D525E-4582-4605-A154-0539734B7502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA67E5-A02A-41CE-AB07-9D60866B50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1185" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1245" windowWidth="25575" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1161,16 +1161,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エデンの手がかりを探そう！</t>
-    <rPh sb="4" eb="5">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>かわいいクッキーが食べたい！</t>
     <rPh sb="9" eb="10">
       <t>タ</t>
@@ -1193,6 +1183,16 @@
   </si>
   <si>
     <t>neko_cookie_heart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>街へ出てみよう！</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1611,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3851,7 +3851,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4030,16 +4030,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>11</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4081,7 +4081,7 @@
         <v>9999</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
@@ -4093,7 +4093,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
